--- a/tensorizing_kernel/CP-decomposition.xlsx
+++ b/tensorizing_kernel/CP-decomposition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,42 @@
   </si>
   <si>
     <t>accelerated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv2_32&amp;conv3_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter-reduction(single-layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter-reduction(single-layer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1035,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1255,6 +1291,142 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>897.46</v>
+      </c>
+      <c r="E28">
+        <v>1680</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="1">
+        <f>A4-A28</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>152.74</v>
+      </c>
+      <c r="E29">
+        <v>921.15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29">
+        <f>D28/D29</f>
+        <v>5.8757365457640436</v>
+      </c>
+      <c r="H29">
+        <f>E28/E29</f>
+        <v>1.8238071975248331</v>
+      </c>
+      <c r="I29" s="1">
+        <f>A4-A29</f>
+        <v>6.4000000000000057E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <f>D29</f>
+        <v>152.74</v>
+      </c>
+      <c r="E30">
+        <f>E29</f>
+        <v>921.15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30">
+        <f>G29</f>
+        <v>5.8757365457640436</v>
+      </c>
+      <c r="H30">
+        <f>H29</f>
+        <v>1.8238071975248331</v>
+      </c>
+      <c r="I30" s="1">
+        <f>A28-A30</f>
+        <v>2.0299999999999985E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1267,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/tensorizing_kernel/CP-decomposition.xlsx
+++ b/tensorizing_kernel/CP-decomposition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>L2_error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy_no_ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>**</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,15 +86,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L2_error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accuracy_no_ft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model_B</t>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv-time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv-speedup-cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv-speedup-gpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy-drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv2=48*3*3*192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter-reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv3=96*3*3*384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv-time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full-time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv-speedup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full-speedup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy-drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accelerated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv2_32&amp;conv3_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter-reduction(single-layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter-reduction(single-layer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,6 +202,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmark, batch-size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmark, batch-size=70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmark, batch-size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmark, batch-size=60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no  fine-tune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine-tuned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmark, batchsize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmark, batchsize=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine-tuned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>**</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,117 +263,6 @@
   </si>
   <si>
     <t>**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batch-size=10</t>
-  </si>
-  <si>
-    <t>batch-size=50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv-time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv-speedup-cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv-speedup-gpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accuracy-drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv2=48*3*3*192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter-reduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv3=96*3*3*384</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv-time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full-time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accuracy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv-speedup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full-speedup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accuracy-drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accelerated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv2_32&amp;conv3_64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accuracy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter-reduction(single-layer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter-reduction(single-layer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,18 +610,18 @@
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <f>(48*3*3*192)/(48+3+3+192)</f>
@@ -581,16 +630,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -608,42 +657,45 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.75600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>470.19900000000001</v>
+        <v>897.46</v>
       </c>
       <c r="E4">
-        <v>1731.1</v>
+        <v>1680</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -667,15 +719,15 @@
       </c>
       <c r="G5">
         <f>D4/D5</f>
-        <v>9.2814646664034743</v>
+        <v>17.715357283853141</v>
       </c>
       <c r="H5">
         <f>E4/E5</f>
-        <v>1.3743033613311952</v>
+        <v>1.3337355710452359</v>
       </c>
       <c r="I5" s="1">
         <f>A4-A5</f>
-        <v>0.67600000000000005</v>
+        <v>0.67</v>
       </c>
       <c r="J5">
         <f>B2/B5</f>
@@ -703,15 +755,15 @@
       </c>
       <c r="G6">
         <f>D4/D6</f>
-        <v>6.5088455149501669</v>
+        <v>12.423311184939093</v>
       </c>
       <c r="H6">
         <f>E4/E6</f>
-        <v>1.2820968590071173</v>
+        <v>1.2442508943053303</v>
       </c>
       <c r="I6" s="1">
         <f>A4-A6</f>
-        <v>0.17500000000000004</v>
+        <v>0.16900000000000004</v>
       </c>
       <c r="J6">
         <f>B2/B6</f>
@@ -739,15 +791,15 @@
       </c>
       <c r="G7">
         <f>D4/D7</f>
-        <v>4.7552487864077673</v>
+        <v>9.0762540453074436</v>
       </c>
       <c r="H7">
         <f>E4/E7</f>
-        <v>1.2867379249855055</v>
+        <v>1.2487549615710527</v>
       </c>
       <c r="I7" s="1">
         <f>A4-A7</f>
-        <v>4.4000000000000039E-2</v>
+        <v>3.8000000000000034E-2</v>
       </c>
       <c r="J7">
         <f>B2/B7</f>
@@ -775,15 +827,15 @@
       </c>
       <c r="G8">
         <f>D4/D8</f>
-        <v>3.1159642147117297</v>
+        <v>5.9473823724320747</v>
       </c>
       <c r="H8">
         <f>E4/E8</f>
-        <v>1.2341023155013116</v>
+        <v>1.1976730922778602</v>
       </c>
       <c r="I8" s="1">
         <f>A4-A8</f>
-        <v>3.2000000000000028E-2</v>
+        <v>2.6000000000000023E-2</v>
       </c>
       <c r="J8">
         <f>B2/B8</f>
@@ -811,15 +863,15 @@
       </c>
       <c r="G9">
         <f>D4/D9</f>
-        <v>1.7749386584122908</v>
+        <v>3.3877920803291683</v>
       </c>
       <c r="H9">
         <f>E4/E9</f>
-        <v>1.1994789393089016</v>
+        <v>1.1640717567090029</v>
       </c>
       <c r="I9" s="1">
         <f>A4-A9</f>
-        <v>-8.0000000000000071E-3</v>
+        <v>-1.4000000000000012E-2</v>
       </c>
       <c r="J9">
         <f>B2/B9</f>
@@ -828,34 +880,38 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0.75600000000000001</v>
+        <f>A4</f>
+        <v>0.75</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>22.29</v>
+      </c>
+      <c r="E10">
+        <v>95.53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
-        <v>28.970099999999999</v>
-      </c>
-      <c r="E10">
-        <v>145.43899999999999</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>20</v>
+      <c r="J10" t="s">
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -869,25 +925,25 @@
         <v>0.90539999999999998</v>
       </c>
       <c r="D11">
-        <v>12.951000000000001</v>
+        <v>8.3350000000000009</v>
       </c>
       <c r="E11">
-        <v>116.373</v>
+        <v>80.230999999999995</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <f>D10/D11</f>
-        <v>2.2369006254343291</v>
+        <v>2.6742651469706056</v>
       </c>
       <c r="H11">
         <f>E10/E11</f>
-        <v>1.2497658391551303</v>
+        <v>1.1906868916005036</v>
       </c>
       <c r="I11" s="1">
         <f>A10-A11</f>
-        <v>0.67600000000000005</v>
+        <v>0.67</v>
       </c>
       <c r="J11">
         <v>42.146341463414636</v>
@@ -904,25 +960,25 @@
         <v>0.84930000000000005</v>
       </c>
       <c r="D12">
-        <v>13.16</v>
+        <v>11.35</v>
       </c>
       <c r="E12">
-        <v>130.482</v>
+        <v>83.426100000000005</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <f>D10/D12</f>
-        <v>2.2013753799392095</v>
+        <v>1.9638766519823789</v>
       </c>
       <c r="H12">
         <f>E10/E12</f>
-        <v>1.114628837694088</v>
+        <v>1.1450852910539986</v>
       </c>
       <c r="I12" s="1">
         <f>A10-A12</f>
-        <v>0.17500000000000004</v>
+        <v>0.16900000000000004</v>
       </c>
       <c r="J12">
         <v>21.073170731707318</v>
@@ -939,25 +995,25 @@
         <v>0.78059999999999996</v>
       </c>
       <c r="D13">
-        <v>20.364000000000001</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E13">
-        <v>134.84100000000001</v>
+        <v>89.56</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <f>D10/D13</f>
-        <v>1.4226134354743665</v>
+        <v>1.2664772727272726</v>
       </c>
       <c r="H13">
         <f>E10/E13</f>
-        <v>1.0785962726470435</v>
+        <v>1.0666592228673515</v>
       </c>
       <c r="I13" s="1">
         <f>A10-A13</f>
-        <v>4.4000000000000039E-2</v>
+        <v>3.8000000000000034E-2</v>
       </c>
       <c r="J13">
         <v>10.536585365853659</v>
@@ -974,25 +1030,25 @@
         <v>0.69259999999999999</v>
       </c>
       <c r="D14">
-        <v>37.33</v>
+        <v>31.77</v>
       </c>
       <c r="E14">
-        <v>158.61199999999999</v>
+        <v>104.34</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <f>D10/D14</f>
-        <v>0.77605411197428342</v>
+        <v>0.70160528800755428</v>
       </c>
       <c r="H14">
         <f>E10/E14</f>
-        <v>0.91694827629687536</v>
+        <v>0.91556450067088369</v>
       </c>
       <c r="I14" s="1">
         <f>A10-A14</f>
-        <v>3.2000000000000028E-2</v>
+        <v>2.6000000000000023E-2</v>
       </c>
       <c r="J14">
         <v>5.2682926829268295</v>
@@ -1009,25 +1065,25 @@
         <v>0.52739999999999998</v>
       </c>
       <c r="D15">
-        <v>69.156999999999996</v>
+        <v>57.37</v>
       </c>
       <c r="E15">
-        <v>181.57499999999999</v>
+        <v>129.80099999999999</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <f>D11/D15</f>
-        <v>0.18726954610523883</v>
+        <v>0.14528499215617921</v>
       </c>
       <c r="H15">
         <f>E10/E15</f>
-        <v>0.8009858185322869</v>
+        <v>0.7359727582992428</v>
       </c>
       <c r="I15" s="3">
         <f>A10-A15</f>
-        <v>-8.0000000000000071E-3</v>
+        <v>-1.4000000000000012E-2</v>
       </c>
       <c r="J15">
         <v>2.6341463414634148</v>
@@ -1035,7 +1091,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <f>(96*3*3*384)/(96+3+3+384)</f>
@@ -1044,13 +1100,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -1071,42 +1127,45 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>427.26400000000001</v>
+        <v>897.46</v>
       </c>
       <c r="E19">
-        <v>1628.91</v>
+        <v>1680</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1130,15 +1189,15 @@
       </c>
       <c r="G20">
         <f>D19/D20</f>
-        <v>18.000674081563869</v>
+        <v>37.810077519379846</v>
       </c>
       <c r="H20">
         <f>E19/E20</f>
-        <v>1.3040251693164897</v>
+        <v>1.3449253086123252</v>
       </c>
       <c r="I20" s="1">
         <f>A19-A20</f>
-        <v>0.74399999999999999</v>
+        <v>0.746</v>
       </c>
       <c r="J20">
         <f>B17/B20</f>
@@ -1166,15 +1225,15 @@
       </c>
       <c r="G21">
         <f>D19/D21</f>
-        <v>14.390644787540754</v>
+        <v>30.227278851076441</v>
       </c>
       <c r="H21">
         <f>E19/E21</f>
-        <v>1.3268196924279942</v>
+        <v>1.3684347712759024</v>
       </c>
       <c r="I21" s="1">
         <f>A19-A21</f>
-        <v>0.38200000000000001</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="J21">
         <f>B17/B21</f>
@@ -1202,15 +1261,15 @@
       </c>
       <c r="G22">
         <f>D19/D22</f>
-        <v>10.285866707239039</v>
+        <v>21.605269657819871</v>
       </c>
       <c r="H22">
         <f>E19/E22</f>
-        <v>1.3098659504491104</v>
+        <v>1.35094928311233</v>
       </c>
       <c r="I22" s="1">
         <f>A19-A22</f>
-        <v>7.4999999999999956E-2</v>
+        <v>7.6999999999999957E-2</v>
       </c>
       <c r="J22">
         <f>B17/B22</f>
@@ -1238,15 +1297,15 @@
       </c>
       <c r="G23">
         <f>D19/D23</f>
-        <v>7.643590131656862</v>
+        <v>16.055217382126198</v>
       </c>
       <c r="H23">
         <f>E19/E23</f>
-        <v>1.302367417428222</v>
+        <v>1.3432155621117268</v>
       </c>
       <c r="I23" s="1">
         <f>A19-A23</f>
-        <v>2.0000000000000018E-3</v>
+        <v>4.0000000000000036E-3</v>
       </c>
       <c r="J23">
         <f>B17/B23</f>
@@ -1274,15 +1333,15 @@
       </c>
       <c r="G24">
         <f>D19/D24</f>
-        <v>4.1198670886198006</v>
+        <v>8.6537033715752472</v>
       </c>
       <c r="H24">
         <f>E19/E24</f>
-        <v>1.2518136546678553</v>
+        <v>1.2910762042359596</v>
       </c>
       <c r="I24" s="1">
         <f>A19-A24</f>
-        <v>-2.1000000000000019E-2</v>
+        <v>-1.9000000000000017E-2</v>
       </c>
       <c r="J24">
         <f>B17/B24</f>
@@ -1290,142 +1349,398 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I25" s="1"/>
+      <c r="A25" s="1">
+        <f>A19</f>
+        <v>0.75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>16.05</v>
+      </c>
+      <c r="E25">
+        <v>81.680000000000007</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>40</v>
+      <c r="A26" s="1">
+        <f>A20</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B26">
+        <f>B20</f>
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <f>C20</f>
+        <v>0.94</v>
+      </c>
+      <c r="D26">
+        <v>2.9820000000000002</v>
+      </c>
+      <c r="E26">
+        <v>67.97</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26">
+        <f>D25/D26</f>
+        <v>5.3822937625754523</v>
+      </c>
+      <c r="H26">
+        <f>E25/E26</f>
+        <v>1.2017066352802708</v>
+      </c>
+      <c r="I26" s="1">
+        <f>A19-A26</f>
+        <v>0.746</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
+      <c r="A27" s="1">
+        <f>A21</f>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <f>C21</f>
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D27">
+        <v>3.6509999999999998</v>
+      </c>
+      <c r="E27">
+        <v>68.92</v>
       </c>
       <c r="F27" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="G27">
+        <f>D25/D27</f>
+        <v>4.3960558751027117</v>
+      </c>
+      <c r="H27">
+        <f>E25/E27</f>
+        <v>1.1851421938479396</v>
+      </c>
+      <c r="I27" s="1">
+        <f>A19-A27</f>
+        <v>0.38400000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B28" t="s">
+        <f>A22</f>
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <f>C22</f>
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="D28">
+        <v>5.2110000000000003</v>
+      </c>
+      <c r="E28">
+        <v>70.398399999999995</v>
+      </c>
+      <c r="F28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28">
-        <v>897.46</v>
-      </c>
-      <c r="E28">
-        <v>1680</v>
-      </c>
-      <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s">
-        <v>45</v>
+      <c r="G28">
+        <f>D25/D28</f>
+        <v>3.0800230282095566</v>
+      </c>
+      <c r="H28">
+        <f>E25/E28</f>
+        <v>1.1602536421282303</v>
       </c>
       <c r="I28" s="1">
-        <f>A4-A28</f>
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="J28" t="s">
-        <v>42</v>
+        <f>A19-A28</f>
+        <v>7.6999999999999957E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
+        <f>A23</f>
+        <v>0.746</v>
+      </c>
+      <c r="B29">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <f>C23</f>
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="D29">
+        <v>8.6132000000000009</v>
+      </c>
+      <c r="E29">
+        <v>73.883600000000001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29">
+        <f>D25/D29</f>
+        <v>1.863418938373659</v>
+      </c>
+      <c r="H29">
+        <f>E25/E29</f>
+        <v>1.1055227411766617</v>
+      </c>
+      <c r="I29" s="1">
+        <f>A19-A29</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <v>897.46</v>
+      </c>
+      <c r="E39">
+        <v>1680</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>0.69199999999999995</v>
       </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29">
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40">
         <v>152.74</v>
       </c>
-      <c r="E29">
+      <c r="E40">
         <v>921.15</v>
       </c>
-      <c r="F29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29">
-        <f>D28/D29</f>
+      <c r="F40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40">
+        <f>D39/D40</f>
         <v>5.8757365457640436</v>
       </c>
-      <c r="H29">
-        <f>E28/E29</f>
+      <c r="H40">
+        <f>E39/E40</f>
         <v>1.8238071975248331</v>
       </c>
-      <c r="I29" s="1">
-        <f>A4-A29</f>
-        <v>6.4000000000000057E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="I40" s="1">
+        <f>A4-A40</f>
+        <v>5.8000000000000052E-2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>0.72970000000000002</v>
       </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30">
-        <f>D29</f>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <f>D40</f>
         <v>152.74</v>
       </c>
-      <c r="E30">
-        <f>E29</f>
+      <c r="E41">
+        <f>E40</f>
         <v>921.15</v>
       </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30">
-        <f>G29</f>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41">
+        <f>G40</f>
         <v>5.8757365457640436</v>
       </c>
-      <c r="H30">
-        <f>H29</f>
+      <c r="H41">
+        <f>H40</f>
         <v>1.8238071975248331</v>
       </c>
-      <c r="I30" s="1">
-        <f>A28-A30</f>
+      <c r="I41" s="1">
+        <f>A39-A41</f>
         <v>2.0299999999999985E-2</v>
+      </c>
+      <c r="K41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f>A39</f>
+        <v>0.75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42">
+        <v>29.331099999999999</v>
+      </c>
+      <c r="E42">
+        <v>68.846999999999994</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f>A41</f>
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>19.803000000000001</v>
+      </c>
+      <c r="E43">
+        <v>58.796199999999999</v>
+      </c>
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43">
+        <f>D42/D43</f>
+        <v>1.4811442710700398</v>
+      </c>
+      <c r="H43">
+        <f>E42/E43</f>
+        <v>1.1709430201271509</v>
+      </c>
+      <c r="I43" s="1">
+        <f>I40</f>
+        <v>5.8000000000000052E-2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1458,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1539,27 +1854,27 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>897.46299999999997</v>
@@ -1573,7 +1888,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>152.73694</v>
